--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>day</t>
   </si>
@@ -27,9 +32,6 @@
     <t>partner Type</t>
   </si>
   <si>
-    <t>phone Case Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -72,12 +74,6 @@
     <t>Lineitem sku</t>
   </si>
   <si>
-    <t>glass</t>
-  </si>
-  <si>
-    <t>mj0001</t>
-  </si>
-  <si>
     <t>Dat Tran</t>
   </si>
   <si>
@@ -96,9 +92,6 @@
     <t xml:space="preserve"> iPhone X</t>
   </si>
   <si>
-    <t>mj0015</t>
-  </si>
-  <si>
     <t>Aekrat Somrueang</t>
   </si>
   <si>
@@ -123,12 +116,6 @@
     <t xml:space="preserve">Luminous Glow Phone case iPhone Samsung nam220805 </t>
   </si>
   <si>
-    <t>luminous</t>
-  </si>
-  <si>
-    <t>mj0030</t>
-  </si>
-  <si>
     <t>Kreistein  Patacsil</t>
   </si>
   <si>
@@ -147,23 +134,29 @@
     <t xml:space="preserve"> Galaxy S8+</t>
   </si>
   <si>
-    <t>glasss</t>
-  </si>
-  <si>
     <t>dress</t>
   </si>
   <si>
-    <t>ahieu</t>
-  </si>
-  <si>
-    <t>aluyen</t>
+    <t>dr111</t>
+  </si>
+  <si>
+    <t>dr112</t>
+  </si>
+  <si>
+    <t>dr113</t>
+  </si>
+  <si>
+    <t>drahieu</t>
+  </si>
+  <si>
+    <t>drahieu2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,13 +167,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,13 +206,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -238,6 +221,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +528,7 @@
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,40 +538,40 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -594,164 +580,152 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43764</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3">
+        <v>331038</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="L2" s="3">
+        <v>98515422</v>
+      </c>
+      <c r="M2" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N2" s="3">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="4">
-        <v>331038</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4">
-        <v>98515422</v>
-      </c>
-      <c r="N2" s="2">
-        <v>9.5</v>
-      </c>
-      <c r="O2" s="4">
-        <v>5</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43765</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="J3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="M3" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43766</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="2">
+      <c r="I4" s="3">
+        <v>91306</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3">
+        <v>8183262941</v>
+      </c>
+      <c r="M4" s="2">
         <v>10.1</v>
       </c>
-      <c r="O3" s="4">
+      <c r="N4" s="3">
         <v>5</v>
       </c>
-      <c r="P3" s="2">
+      <c r="O4" s="2">
         <v>1</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43765</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="4">
-        <v>91306</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="4">
-        <v>8183262941</v>
-      </c>
-      <c r="N4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>5</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP COMPUTER\Desktop\checkingV1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
-    <t>partner Type</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -137,19 +131,22 @@
     <t>dress</t>
   </si>
   <si>
-    <t>dr111</t>
-  </si>
-  <si>
-    <t>dr112</t>
-  </si>
-  <si>
-    <t>dr113</t>
-  </si>
-  <si>
-    <t>drahieu</t>
-  </si>
-  <si>
-    <t>drahieu2</t>
+    <t>phonecasetype</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>#tmt123</t>
+  </si>
+  <si>
+    <t>#mj123</t>
+  </si>
+  <si>
+    <t>#hm124</t>
   </si>
 </sst>
 </file>
@@ -519,12 +516,13 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,81 +531,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43764</v>
+        <v>43770</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="3">
         <v>331038</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L2" s="3">
         <v>98515422</v>
@@ -622,45 +620,45 @@
         <v>1</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43765</v>
+        <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>10.1</v>
@@ -672,42 +670,42 @@
         <v>1</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43766</v>
+        <v>43772</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I4" s="3">
         <v>91306</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3">
         <v>8183262941</v>
@@ -722,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>day</t>
   </si>
@@ -131,13 +126,7 @@
     <t>dress</t>
   </si>
   <si>
-    <t>phonecasetype</t>
-  </si>
-  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>glass</t>
   </si>
   <si>
     <t>#tmt123</t>
@@ -152,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -269,7 +258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,7 +293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -513,20 +502,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,195 +522,183 @@
         <v>36</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43770</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
         <v>331038</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="3">
+      <c r="K2" s="3">
         <v>98515422</v>
       </c>
-      <c r="M2" s="2">
+      <c r="L2" s="2">
         <v>9.5</v>
       </c>
-      <c r="N2" s="3">
+      <c r="M2" s="3">
         <v>5</v>
       </c>
-      <c r="O2" s="2">
+      <c r="N2" s="2">
         <v>1</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="P2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="2">
+      <c r="L3" s="2">
         <v>10.1</v>
       </c>
-      <c r="N3" s="3">
+      <c r="M3" s="3">
         <v>5</v>
       </c>
-      <c r="O3" s="2">
+      <c r="N3" s="2">
         <v>1</v>
       </c>
+      <c r="O3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="P3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43772</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>91306</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3">
+      <c r="K4" s="3">
         <v>8183262941</v>
       </c>
-      <c r="M4" s="2">
+      <c r="L4" s="2">
         <v>10.1</v>
       </c>
-      <c r="N4" s="3">
+      <c r="M4" s="3">
         <v>5</v>
       </c>
-      <c r="O4" s="2">
+      <c r="N4" s="2">
         <v>1</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
     </row>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>day</t>
   </si>
@@ -81,61 +81,19 @@
     <t xml:space="preserve"> iPhone X</t>
   </si>
   <si>
-    <t>Aekrat Somrueang</t>
-  </si>
-  <si>
-    <t>405 5 Ave SW</t>
-  </si>
-  <si>
-    <t>Redcliff</t>
-  </si>
-  <si>
-    <t>T0J 2P0</t>
-  </si>
-  <si>
-    <t>AB</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>'+1 403-977-3960</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luminous Glow Phone case iPhone Samsung nam220805 </t>
-  </si>
-  <si>
-    <t>Kreistein  Patacsil</t>
-  </si>
-  <si>
-    <t>7812 Comanche Avenue</t>
-  </si>
-  <si>
-    <t>Winnetka</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luminous Glow Phone case iPhone Samsung dah230816 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Galaxy S8+</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>#tmt123</t>
-  </si>
-  <si>
-    <t>#mj123</t>
-  </si>
-  <si>
-    <t>#hm124</t>
+    <t>#tmt222322</t>
+  </si>
+  <si>
+    <t>#tmt22342322</t>
+  </si>
+  <si>
+    <t>dress2</t>
+  </si>
+  <si>
+    <t>dress3</t>
   </si>
 </sst>
 </file>
@@ -502,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -569,10 +527,10 @@
         <v>43770</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -610,37 +568,34 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43771</v>
+        <v>43770</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="3">
+        <v>331038</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="K3" s="3">
+        <v>98515422</v>
       </c>
       <c r="L3" s="2">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="M3" s="3">
         <v>5</v>
@@ -649,57 +604,10 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>43772</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3">
-        <v>91306</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3">
-        <v>8183262941</v>
-      </c>
-      <c r="L4" s="2">
-        <v>10.1</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5</v>
-      </c>
-      <c r="N4" s="2">
-        <v>1</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>day</t>
   </si>
@@ -84,22 +89,19 @@
     <t>product</t>
   </si>
   <si>
-    <t>#tmt222322</t>
-  </si>
-  <si>
-    <t>#tmt22342322</t>
-  </si>
-  <si>
-    <t>dress2</t>
-  </si>
-  <si>
-    <t>dress3</t>
+    <t>phonecase</t>
+  </si>
+  <si>
+    <t>#tmt122</t>
+  </si>
+  <si>
+    <t>#mj1222</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,7 +465,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +526,13 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43770</v>
+        <v>43774</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>15</v>
@@ -568,13 +570,13 @@
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43770</v>
+        <v>43774</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>15</v>

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\checkingV1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
@@ -92,16 +87,16 @@
     <t>phonecase</t>
   </si>
   <si>
-    <t>#tmt122</t>
-  </si>
-  <si>
-    <t>#mj1222</t>
+    <t xml:space="preserve">#MJ10032	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#MJ10026	</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -218,7 +213,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,7 +248,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,7 +460,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +526,7 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -575,7 +570,7 @@
       <c r="B3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="3" t="s">

--- a/aaaaa.xlsx
+++ b/aaaaa.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>day</t>
   </si>
@@ -63,34 +63,61 @@
     <t>Lineitem sku</t>
   </si>
   <si>
-    <t>Dat Tran</t>
-  </si>
-  <si>
-    <t>38A BENDEMEER ROAD, 09-826</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>SG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phone case iPhone Samsung tlm290706 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> iPhone X</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>phonecase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#MJ10032	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#MJ10026	</t>
+    <t>dress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#MJ10061	</t>
+  </si>
+  <si>
+    <t>Kreistein  Patacsil</t>
+  </si>
+  <si>
+    <t>7814 Comanche Avenue</t>
+  </si>
+  <si>
+    <t>Winnetka</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Luminous Glow Phone case iPhone Samsung dah230818</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Galaxy S8+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TMT13396	</t>
+  </si>
+  <si>
+    <t>7815 Comanche Avenue</t>
+  </si>
+  <si>
+    <t>Luminous Glow Phone case iPhone Samsung dah230819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#TMT11690	</t>
+  </si>
+  <si>
+    <t>7816 Comanche Avenue</t>
+  </si>
+  <si>
+    <t>Luminous Glow Phone case iPhone Samsung dah230820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#MJ10039	</t>
+  </si>
+  <si>
+    <t>7817 Comanche Avenue</t>
+  </si>
+  <si>
+    <t>Luminous Glow Phone case iPhone Samsung dah230821</t>
   </si>
 </sst>
 </file>
@@ -457,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -521,34 +548,37 @@
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>91308</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3">
-        <v>331038</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K2" s="3">
-        <v>98515422</v>
+        <v>8183262941</v>
       </c>
       <c r="L2" s="2">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="M2" s="3">
         <v>5</v>
@@ -557,42 +587,45 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <v>91309</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3">
-        <v>331038</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="3">
-        <v>98515422</v>
+        <v>8183262941</v>
       </c>
       <c r="L3" s="2">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="M3" s="3">
         <v>5</v>
@@ -601,10 +634,104 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="H4" s="3">
+        <v>91310</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8183262941</v>
+      </c>
+      <c r="L4" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>5</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3">
+        <v>91311</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8183262941</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
